--- a/medicine/Pharmacie/Classe_ATC_P01/Classe_ATC_P01.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_P01/Classe_ATC_P01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC P01, dénommée « Antiprotozoaires », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QP51[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique P de la classification, intitulé « Antiparasitaires, insecticides et répulsifs ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC P01, dénommée « Antiprotozoaires », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QP51. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique P de la classification, intitulé « Antiparasitaires, insecticides et répulsifs ».
 </t>
         </is>
       </c>
@@ -513,33 +525,174 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>P01AA Dérivés de l'hydroxyquinoline
-P01AA01 Broxyquinoline (en)
+          <t>P01AA Dérivés de l'hydroxyquinoline</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>P01AA01 Broxyquinoline (en)
 P01AA02 Clioquinol (en)
 P01AA04 Chlorquinaldol (en)
 P01AA05 Tilbroquinol (en)
-P01AA52 Clioquinol, associations
-P01AB Dérivés nitro-imidazolés
-P01AB01 Métronidazole
+P01AA52 Clioquinol, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>P01A Médicaments contre l'amibiase et autres protozooses</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>P01AB Dérivés nitro-imidazolés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>P01AB01 Métronidazole
 P01AB02 Tinidazole
 P01AB03 Ornidazole (en)
 P01AB04 Azanidazole (en)
 P01AB05 Propénidazole (en)
 P01AB06 Nimorazole (en)
 P01AB07 Secnidazole (en)
-P01AB51 Métronidazole, associations
-P01AC Dérivés du dichloroacétamide
-P01AC01 Diloxanide
+P01AB51 Métronidazole, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>P01A Médicaments contre l'amibiase et autres protozooses</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>P01AC Dérivés du dichloroacétamide</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>P01AC01 Diloxanide
 P01AC02 Cléfamide (en)
 P01AC03 Étofamide (en)
-P01AC04 Téclozan (en)
-P01AR Médicaments à base d'arsenic
-P01AR01 Arsthinol
+P01AC04 Téclozan (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>P01A Médicaments contre l'amibiase et autres protozooses</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>P01AR Médicaments à base d'arsenic</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>P01AR01 Arsthinol
 P01AR02 Difétarsone (en)
 P01AR03 Glycobiarsol (en)
-P01AR53 Glycobiarsol, associations
-P01AX Autres médicaments contre l'amibiase et autres protozooses
-P01AX01 Chiniofon (en)
+P01AR53 Glycobiarsol, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>P01A Médicaments contre l'amibiase et autres protozooses</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>P01AX Autres médicaments contre l'amibiase et autres protozooses</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>P01AX01 Chiniofon (en)
 P01AX02 Émétine
 P01AX04 Phanquinone (en)
 P01AX05 Mépacrine
@@ -553,105 +706,455 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_P01</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>P01B Antipaludéens</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>P01BA Aminoquinoléïnes
-P01BA01 Chloroquine
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>P01BA Aminoquinoléïnes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>P01BA01 Chloroquine
 P01BA02 Hydroxychloroquine
 P01BA03 Primaquine
-P01BA06 Amodiaquine
-P01BB Biguanides
-P01BB01 Proguanil
+P01BA06 Amodiaquine</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>P01B Antipaludéens</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>P01BB Biguanides</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>P01BB01 Proguanil
 P01BB02 Cycloguanil embonate (en)
-P01BB51 Proguanil, associations
-P01BC Alcaloïdes de la quinine
-P01BC01 Quinine
-P01BC02 Méfloquine
-P01BD Diaminopyrimidines
-P01BD01 Pyriméthamine
-P01BD51 Pyriméthamine, associations
-P01BE Artémisine et dérivés, seuls
-P01BE01 Artémisine
+P01BB51 Proguanil, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>P01B Antipaludéens</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>P01BC Alcaloïdes de la quinine</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>P01BC01 Quinine
+P01BC02 Méfloquine</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>P01B Antipaludéens</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>P01BD Diaminopyrimidines</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>P01BD01 Pyriméthamine
+P01BD51 Pyriméthamine, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>P01B Antipaludéens</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>P01BE Artémisine et dérivés, seuls</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>P01BE01 Artémisine
 P01BE02 Artéméther
 P01BE03 Artésunate
 P01BE04 Artémotil (en)
-P01BE05 Arténimol
-P01BF Artémisinine et dérivés, combinaisons
-P01BF01 Artéméther et luméfantrine
+P01BE05 Arténimol</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>P01B Antipaludéens</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>P01BF Artémisinine et dérivés, combinaisons</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>P01BF01 Artéméther et luméfantrine
 P01BF02 Artésunate et méfloquine
 P01BF03 Artésunate et amodiaquine (en)
 P01BF04 Artésunate, sulfaméthopyrazine et pyriméthamine
 P01BF05 Arténimol et pipéraquine (en)
-P01BF06 Artésunate et pyronaridine (en)
-P01BX Autres antipaludéens
-P01BX01 Halofantrine (en)
+P01BF06 Artésunate et pyronaridine (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>P01B Antipaludéens</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>P01BX Autres antipaludéens</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>P01BX01 Halofantrine (en)
 P01BX02 Artérolane et pipéraquine</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classe_ATC_P01</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>P01C Antileishmaniens et trypanocides</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>P01CA Dérivés du nitro-imidazole
-P01CA02 Benznidazole
-P01CB Médicaments à base d'antimoine
-P01CB01 Antimoniate de méglumine
-P01CB02 Stibogluconate sodique
-P01CC Dérivés du nitrofurane
-P01CC01 Nifurtimox
-P01CC02 Nitrofural (en)
-P01CD Médicaments à base d'arsenic
-P01CD01 Mélarsoprol
-P01CD02 Acétarsol
-P01CX Autres antileishmaniens et trypanocides
-P01CX01 Iséthionate de pentamidine
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>P01CA Dérivés du nitro-imidazole</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>P01CA02 Benznidazole</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>P01C Antileishmaniens et trypanocides</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>P01CB Médicaments à base d'antimoine</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>P01CB01 Antimoniate de méglumine
+P01CB02 Stibogluconate sodique</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>P01C Antileishmaniens et trypanocides</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>P01CC Dérivés du nitrofurane</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>P01CC01 Nifurtimox
+P01CC02 Nitrofural (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>P01C Antileishmaniens et trypanocides</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>P01CD Médicaments à base d'arsenic</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>P01CD01 Mélarsoprol
+P01CD02 Acétarsol</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>P01C Antileishmaniens et trypanocides</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>P01CX Autres antileishmaniens et trypanocides</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>P01CX01 Iséthionate de pentamidine
 P01CX02 Suramine sodique
 P01CX03 Éflornithine</t>
         </is>
